--- a/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
+++ b/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dooms\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1230A-4C2D-4976-B272-822B18010D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B9B25-D0FD-4C5E-BB1D-0EDBAE467B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B560D4E7-D458-4539-94C5-78FD07164D93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B560D4E7-D458-4539-94C5-78FD07164D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -43,15 +43,6 @@
     <t>Chức danh</t>
   </si>
   <si>
-    <t>0315159393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công ty Cổ phần FPT </t>
-  </si>
-  <si>
-    <t>contact@fpt.com.vn</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -67,13 +58,8 @@
     <t>Số lượng học viên</t>
   </si>
   <si>
-    <t xml:space="preserve">Hội viên VINASA </t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Hội viên VINASA 
+(1-có, 0-không)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -165,12 +151,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -485,45 +479,45 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:35" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -553,29 +547,15 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -605,10 +585,7 @@
       <c r="AI2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1FC6B4B4-E0D3-4877-8CB7-7DD2797E29F9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
+++ b/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK3_NH21-22\SEP\fixcode\Vinasa\Vinasa\Content\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B9B25-D0FD-4C5E-BB1D-0EDBAE467B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00931791-35AE-474B-81ED-7A9D4F4A7136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B560D4E7-D458-4539-94C5-78FD07164D93}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Chức danh</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>Họ tên</t>
   </si>
   <si>
@@ -58,15 +55,14 @@
     <t>Số lượng học viên</t>
   </si>
   <si>
-    <t>Hội viên VINASA 
-(1-có, 0-không)</t>
+    <t>Hội viên VINASA (1 - Có; 0 - Không)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,20 +83,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,27 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -476,113 +444,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A644CE-0114-4290-8BB9-5F7C5BCAC7BC}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
+++ b/Vinasa/Content/Files/MauKhoaDaoTao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00931791-35AE-474B-81ED-7A9D4F4A7136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C4A51-5012-45C8-9B41-89BEACEB5AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B560D4E7-D458-4539-94C5-78FD07164D93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{53B0100B-1484-4AC4-9B90-DB1132432309}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -35,20 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Công ty/Tổ chức/Cơ quan</t>
+  </si>
+  <si>
+    <t>Chức danh</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Chức danh</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
-  </si>
-  <si>
-    <t>Công ty/Tổ chức/Cơ quan</t>
-  </si>
-  <si>
     <t>SĐT</t>
   </si>
   <si>
@@ -56,25 +56,34 @@
   </si>
   <si>
     <t>Hội viên VINASA (1 - Có; 0 - Không)</t>
+  </si>
+  <si>
+    <t>Giang Văn Thăng</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>thang@gmail.com</t>
+  </si>
+  <si>
+    <t>0123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -85,19 +94,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -120,15 +128,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -443,103 +450,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A644CE-0114-4290-8BB9-5F7C5BCAC7BC}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115EDFCB-0EBC-48A7-A509-5CF33ABA4658}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F7AD9F72-AB93-4BB2-8B87-6311D3A4E640}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>